--- a/doc/Кодирование полей таблиц.xlsx
+++ b/doc/Кодирование полей таблиц.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Разряженная таблица" sheetId="1" r:id="rId1"/>
     <sheet name="Совмещенные таблицы" sheetId="2" r:id="rId2"/>
+    <sheet name="Переменная часть" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="131">
   <si>
     <t>часть речи</t>
   </si>
@@ -354,6 +355,60 @@
   </si>
   <si>
     <t>страд</t>
+  </si>
+  <si>
+    <t>переменные части</t>
+  </si>
+  <si>
+    <t>вин одуш/вин неодуш; им; род; дат; вин; тв; пр;   для крат - ед муж; ед жен; ед ср; мн</t>
+  </si>
+  <si>
+    <t>одуш/неод; им; род; дат; вин; тв; пр; парт; счет; мест; зват;</t>
+  </si>
+  <si>
+    <t>!!! Для крат !!! Классная идея - вернуть ед муж, ед жен, ед ср и мн  в постоянную часть, а крат - отнести к переменной части, но тогда слова должны попасть в другую группу, каждый в свою. А текущая группа будет удалена!!!</t>
+  </si>
+  <si>
+    <t>вин одуш/вин неодуш; им; род; дат; вин; тв; пр</t>
+  </si>
+  <si>
+    <t>вин одуш/вин неодуш; им; род; дат; вин; тв; пр;</t>
+  </si>
+  <si>
+    <t>сокращение</t>
+  </si>
+  <si>
+    <t>гл</t>
+  </si>
+  <si>
+    <t>предик</t>
+  </si>
+  <si>
+    <t>прич</t>
+  </si>
+  <si>
+    <t>дееп</t>
+  </si>
+  <si>
+    <t>предл</t>
+  </si>
+  <si>
+    <t>част</t>
+  </si>
+  <si>
+    <t>межд</t>
+  </si>
+  <si>
+    <t>мод</t>
+  </si>
+  <si>
+    <t>ввод</t>
+  </si>
+  <si>
+    <t>!!! Инфинитив не изменяется !!!</t>
+  </si>
+  <si>
+    <t>для 2вид/несов/сов - ед муж; ед жен; ед ср; ед 1-е;ед 2-е;ед 3-е;мн 1-е;мн 2-е;мн 3-е;ед;мн;   перенесен в переменную часть (для воз)- инф безл;наст;прош;</t>
   </si>
 </sst>
 </file>
@@ -609,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -618,9 +673,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -659,48 +711,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -722,19 +732,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -748,61 +746,125 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,26 +874,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,10 +1201,10 @@
   <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:C18"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,1751 +1224,1751 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
     </row>
     <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="24" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="26" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="45" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="64"/>
+      <c r="X2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="29" t="s">
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30" t="s">
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="65" t="s">
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="52" t="s">
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AX2" s="47" t="s">
+      <c r="AX2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="AY2" s="69" t="s">
+      <c r="AY2" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="71" t="s">
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="72" t="s">
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="77"/>
+      <c r="BG2" s="77"/>
+      <c r="BH2" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="76" t="s">
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="12">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>7</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>8</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>9</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>11</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>12</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>13</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>14</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>15</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>16</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>17</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>18</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="28">
         <v>20</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="12">
         <v>21</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="14">
         <v>22</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="20">
         <v>23</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="20">
         <v>24</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="16">
         <v>25</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="16">
         <v>26</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="16">
         <v>27</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="16">
         <v>28</v>
       </c>
-      <c r="AF3" s="62">
+      <c r="AF3" s="35">
         <v>29</v>
       </c>
-      <c r="AG3" s="62">
+      <c r="AG3" s="35">
         <v>30</v>
       </c>
-      <c r="AH3" s="62">
+      <c r="AH3" s="35">
         <v>31</v>
       </c>
-      <c r="AI3" s="62">
+      <c r="AI3" s="35">
         <v>32</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="6">
         <v>33</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3" s="6">
         <v>34</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="6">
         <v>35</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AM3" s="6">
         <v>36</v>
       </c>
-      <c r="AN3" s="33">
+      <c r="AN3" s="18">
         <v>37</v>
       </c>
-      <c r="AO3" s="33">
+      <c r="AO3" s="18">
         <v>38</v>
       </c>
-      <c r="AP3" s="33">
+      <c r="AP3" s="18">
         <v>39</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AQ3" s="9">
         <v>40</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AR3" s="9">
         <v>41</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AS3" s="9">
         <v>42</v>
       </c>
-      <c r="AT3" s="9">
+      <c r="AT3" s="8">
         <v>43</v>
       </c>
-      <c r="AU3" s="9">
+      <c r="AU3" s="8">
         <v>44</v>
       </c>
-      <c r="AV3" s="9">
+      <c r="AV3" s="8">
         <v>45</v>
       </c>
-      <c r="AW3" s="52">
+      <c r="AW3" s="33">
         <v>46</v>
       </c>
-      <c r="AX3" s="47">
+      <c r="AX3" s="28">
         <v>47</v>
       </c>
-      <c r="AY3" s="73">
+      <c r="AY3" s="38">
         <v>48</v>
       </c>
-      <c r="AZ3" s="73">
+      <c r="AZ3" s="38">
         <v>49</v>
       </c>
-      <c r="BA3" s="73">
+      <c r="BA3" s="38">
         <v>50</v>
       </c>
-      <c r="BB3" s="73">
+      <c r="BB3" s="38">
         <v>51</v>
       </c>
-      <c r="BC3" s="74">
+      <c r="BC3" s="39">
         <v>52</v>
       </c>
-      <c r="BD3" s="74">
+      <c r="BD3" s="39">
         <v>53</v>
       </c>
-      <c r="BE3" s="74">
+      <c r="BE3" s="39">
         <v>54</v>
       </c>
-      <c r="BF3" s="74">
+      <c r="BF3" s="39">
         <v>55</v>
       </c>
-      <c r="BG3" s="74">
+      <c r="BG3" s="39">
         <v>56</v>
       </c>
-      <c r="BH3" s="75">
+      <c r="BH3" s="40">
         <v>57</v>
       </c>
-      <c r="BI3" s="75">
+      <c r="BI3" s="40">
         <v>58</v>
       </c>
-      <c r="BJ3" s="75">
+      <c r="BJ3" s="40">
         <v>59</v>
       </c>
-      <c r="BK3" s="76">
+      <c r="BK3" s="41">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="51"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="32"/>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="48"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="13" t="s">
+      <c r="V5" s="29"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Z5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="35" t="s">
+      <c r="AA5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="51"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="32"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="17" t="s">
+      <c r="V6" s="29"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AC6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AD6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="41"/>
-      <c r="BF6" s="41"/>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="51"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BE6" s="26"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="26"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="32"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="62" t="s">
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AG7" s="62" t="s">
+      <c r="AG7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="AH7" s="62" t="s">
+      <c r="AH7" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="AI7" s="62" t="s">
+      <c r="AI7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="51"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="32"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="7" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AK8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AM8" s="7" t="s">
+      <c r="AM8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AN8" s="33" t="s">
+      <c r="AN8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AO8" s="33" t="s">
+      <c r="AO8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AP8" s="33" t="s">
+      <c r="AP8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AQ8" s="10" t="s">
+      <c r="AQ8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AR8" s="10" t="s">
+      <c r="AR8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="AS8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AT8" s="9" t="s">
+      <c r="AT8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AU8" s="9" t="s">
+      <c r="AU8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AV8" s="50" t="s">
+      <c r="AV8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AW8" s="66" t="s">
+      <c r="AW8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AX8" s="48" t="s">
+      <c r="AX8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="41"/>
-      <c r="BF8" s="41"/>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="51"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="26"/>
+      <c r="BF8" s="26"/>
+      <c r="BG8" s="26"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="32"/>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="70" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AZ9" s="70" t="s">
+      <c r="AZ9" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="BA9" s="70" t="s">
+      <c r="BA9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="BB9" s="70" t="s">
+      <c r="BB9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="BC9" s="41" t="s">
+      <c r="BC9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="BD9" s="41" t="s">
+      <c r="BD9" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="BE9" s="41" t="s">
+      <c r="BE9" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BF9" s="41" t="s">
+      <c r="BF9" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="BG9" s="41" t="s">
+      <c r="BG9" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="BH9" s="53" t="s">
+      <c r="BH9" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="BI9" s="53" t="s">
+      <c r="BI9" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="BJ9" s="53" t="s">
+      <c r="BJ9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="BK9" s="51"/>
+      <c r="BK9" s="32"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="51"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="32"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="13" t="s">
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="33" t="s">
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="33" t="s">
+      <c r="AO11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="10" t="s">
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AR11" s="10" t="s">
+      <c r="AR11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AS11" s="10" t="s">
+      <c r="AS11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AT11" s="9" t="s">
+      <c r="AT11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AU11" s="9" t="s">
+      <c r="AU11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AV11" s="50" t="s">
+      <c r="AV11" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AW11" s="66" t="s">
+      <c r="AW11" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="51" t="s">
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="33" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="33" t="s">
+      <c r="AO12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="10" t="s">
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AR12" s="10" t="s">
+      <c r="AR12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="9" t="s">
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AU12" s="9" t="s">
+      <c r="AU12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AV12" s="50" t="s">
+      <c r="AV12" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AW12" s="66" t="s">
+      <c r="AW12" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="53"/>
-      <c r="BI12" s="53"/>
-      <c r="BJ12" s="53"/>
-      <c r="BK12" s="51"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="32"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="53"/>
-      <c r="BI13" s="53"/>
-      <c r="BJ13" s="53"/>
-      <c r="BK13" s="51"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="34"/>
+      <c r="BJ13" s="34"/>
+      <c r="BK13" s="32"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="53"/>
-      <c r="BI14" s="53"/>
-      <c r="BJ14" s="53"/>
-      <c r="BK14" s="51"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="34"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="32"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="53"/>
-      <c r="BI15" s="53"/>
-      <c r="BJ15" s="53"/>
-      <c r="BK15" s="51"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="32"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="53"/>
-      <c r="BI16" s="53"/>
-      <c r="BJ16" s="53"/>
-      <c r="BK16" s="51"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="26"/>
+      <c r="BG16" s="26"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="32"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="21">
         <v>14</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="41"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="53"/>
-      <c r="BI17" s="53"/>
-      <c r="BJ17" s="53"/>
-      <c r="BK17" s="51"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
+      <c r="BJ17" s="34"/>
+      <c r="BK17" s="32"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="22">
         <v>15</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="53"/>
-      <c r="BI18" s="53"/>
-      <c r="BJ18" s="53"/>
-      <c r="BK18" s="51"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="32"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2920,11 +2979,6 @@
     <mergeCell ref="BH2:BJ2"/>
     <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="D1:AX1"/>
     <mergeCell ref="A1:A3"/>
@@ -2934,6 +2988,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AQ2:AS2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2944,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,1695 +3023,1695 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="26" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="45" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="46"/>
+      <c r="W1" s="64"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="12">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>4</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>6</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>7</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>8</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>9</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>10</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>11</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>12</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="10">
         <v>13</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>14</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="10">
         <v>15</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>16</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>17</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="10">
         <v>18</v>
       </c>
-      <c r="V2" s="47">
+      <c r="V2" s="28">
         <v>19</v>
       </c>
-      <c r="W2" s="47">
+      <c r="W2" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="W3" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="26" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="13" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="X6" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="43"/>
+      <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="12">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>4</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>6</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>7</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>8</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>9</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>10</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>11</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>12</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>13</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>14</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>15</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>16</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>17</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="10">
         <v>18</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>19</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="14">
         <v>20</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="20">
         <v>21</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="20">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="26" t="s">
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="56" t="s">
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="58"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="12">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>5</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>6</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>7</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>9</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>10</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>11</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>12</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>13</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>14</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <v>15</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <v>16</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>17</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="10">
         <v>18</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="16">
         <v>19</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="16">
         <v>20</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="16">
         <v>21</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="54"/>
+      <c r="F16" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="26" t="s">
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="59" t="s">
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="61"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="72"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="12">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>4</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>5</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>6</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>7</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>8</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>9</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>10</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <v>11</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <v>12</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="10">
         <v>13</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="10">
         <v>14</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="10">
         <v>15</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="10">
         <v>16</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>17</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="10">
         <v>18</v>
       </c>
-      <c r="V17" s="62">
+      <c r="V17" s="35">
         <v>19</v>
       </c>
-      <c r="W17" s="62">
+      <c r="W17" s="35">
         <v>20</v>
       </c>
-      <c r="X17" s="62">
+      <c r="X17" s="35">
         <v>21</v>
       </c>
-      <c r="Y17" s="62">
+      <c r="Y17" s="35">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="62" t="s">
+      <c r="V18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="62" t="s">
+      <c r="W18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X18" s="62" t="s">
+      <c r="X18" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="62" t="s">
+      <c r="Y18" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="29" t="s">
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30" t="s">
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="54" t="s">
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="63"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="65" t="s">
+      <c r="R21" s="74"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="52" t="s">
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="X21" s="47" t="s">
+      <c r="X21" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="8">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>5</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>6</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>7</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>8</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>9</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>10</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="18">
         <v>11</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="18">
         <v>12</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="18">
         <v>13</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <v>14</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <v>15</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22" s="9">
         <v>16</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <v>17</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="8">
         <v>18</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="8">
         <v>19</v>
       </c>
-      <c r="W22" s="52">
+      <c r="W22" s="33">
         <v>20</v>
       </c>
-      <c r="X22" s="47">
+      <c r="X22" s="28">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="50" t="s">
+      <c r="V23" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="W23" s="66" t="s">
+      <c r="W23" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="X23" s="48" t="s">
+      <c r="X23" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="71" t="s">
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72" t="s">
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="73">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="38">
         <v>1</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="38">
         <v>2</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="38">
         <v>3</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="38">
         <v>4</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="39">
         <v>5</v>
       </c>
-      <c r="I27" s="74">
+      <c r="I27" s="39">
         <v>6</v>
       </c>
-      <c r="J27" s="74">
+      <c r="J27" s="39">
         <v>7</v>
       </c>
-      <c r="K27" s="74">
+      <c r="K27" s="39">
         <v>8</v>
       </c>
-      <c r="L27" s="74">
+      <c r="L27" s="39">
         <v>9</v>
       </c>
-      <c r="M27" s="75">
+      <c r="M27" s="40">
         <v>10</v>
       </c>
-      <c r="N27" s="75">
+      <c r="N27" s="40">
         <v>11</v>
       </c>
-      <c r="O27" s="75">
+      <c r="O27" s="40">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="N28" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="22" t="s">
+      <c r="E36" s="54"/>
+      <c r="F36" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="56"/>
+      <c r="H36" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="26" t="s">
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="13" t="s">
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="W36" s="30" t="s">
+      <c r="W36" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="54" t="s">
+      <c r="X36" s="81"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="65" t="s">
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="52" t="s">
+      <c r="AD36" s="83"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AG36" s="76" t="s">
+      <c r="AG36" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="12">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="11">
         <v>1</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>2</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>3</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>4</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>5</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>6</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <v>7</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <v>8</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>9</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <v>10</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="10">
         <v>11</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="10">
         <v>12</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="10">
         <v>13</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="10">
         <v>14</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="10">
         <v>15</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="10">
         <v>16</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="10">
         <v>17</v>
       </c>
-      <c r="U37" s="11">
+      <c r="U37" s="10">
         <v>18</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="12">
         <v>19</v>
       </c>
-      <c r="W37" s="33">
+      <c r="W37" s="18">
         <v>20</v>
       </c>
-      <c r="X37" s="33">
+      <c r="X37" s="18">
         <v>21</v>
       </c>
-      <c r="Y37" s="33">
+      <c r="Y37" s="18">
         <v>22</v>
       </c>
-      <c r="Z37" s="10">
+      <c r="Z37" s="9">
         <v>23</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AA37" s="9">
         <v>24</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AB37" s="9">
         <v>25</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AC37" s="8">
         <v>26</v>
       </c>
-      <c r="AD37" s="9">
+      <c r="AD37" s="8">
         <v>27</v>
       </c>
-      <c r="AE37" s="9">
+      <c r="AE37" s="8">
         <v>28</v>
       </c>
-      <c r="AF37" s="52">
+      <c r="AF37" s="33">
         <v>29</v>
       </c>
-      <c r="AG37" s="76">
+      <c r="AG37" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>8</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="11" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="S38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="13" t="s">
+      <c r="V38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W38" s="33" t="s">
+      <c r="W38" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="X38" s="33" t="s">
+      <c r="X38" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="10" t="s">
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AA38" s="10" t="s">
+      <c r="AA38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AB38" s="10" t="s">
+      <c r="AB38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AC38" s="9" t="s">
+      <c r="AC38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AD38" s="9" t="s">
+      <c r="AD38" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AE38" s="50" t="s">
+      <c r="AE38" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AF38" s="66" t="s">
+      <c r="AF38" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AG38" s="51" t="s">
+      <c r="AG38" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="54" t="s">
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="65" t="s">
+      <c r="H41" s="74"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="52" t="s">
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="33" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="33">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="18">
         <v>1</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="18">
         <v>2</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="18">
         <v>3</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>4</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>5</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>6</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>7</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>8</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>9</v>
       </c>
-      <c r="M42" s="52">
+      <c r="M42" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>9</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="10" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="9" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="M43" s="66" t="s">
+      <c r="M43" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="28"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="11">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="10">
         <v>1</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>2</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>3</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <v>4</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>5</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <v>6</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <v>7</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <v>8</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>9</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>10</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>11</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>12</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>13</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+      <c r="A68" s="21">
         <v>14</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>15</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4682,11 +4741,6 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -4697,6 +4751,11 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="D46:M46"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="G41:I41"/>
@@ -4746,4 +4805,311 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>